--- a/Templates/NoDomiciliado.xlsx
+++ b/Templates/NoDomiciliado.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Diego\Documents\Repository\Freelances\Carestream\Templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Repository\Freelances\Carestream\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="930" yWindow="0" windowWidth="19560" windowHeight="8340"/>
+    <workbookView xWindow="5370" yWindow="0" windowWidth="19560" windowHeight="8340"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="72">
   <si>
     <t>Periodo</t>
   </si>
@@ -132,6 +132,114 @@
   </si>
   <si>
     <t>CampoArt76</t>
+  </si>
+  <si>
+    <t>20160200</t>
+  </si>
+  <si>
+    <t>2525252</t>
+  </si>
+  <si>
+    <t>M005</t>
+  </si>
+  <si>
+    <t>05/01/2016</t>
+  </si>
+  <si>
+    <t>91</t>
+  </si>
+  <si>
+    <t>0003</t>
+  </si>
+  <si>
+    <t>00000013</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>1662</t>
+  </si>
+  <si>
+    <t>300161300</t>
+  </si>
+  <si>
+    <t>USD</t>
+  </si>
+  <si>
+    <t>9063</t>
+  </si>
+  <si>
+    <t>Bernardo Hidalgo S.R. L</t>
+  </si>
+  <si>
+    <t>Tucuman 829 Piso 4</t>
+  </si>
+  <si>
+    <t>30654739532</t>
+  </si>
+  <si>
+    <t>00</t>
+  </si>
+  <si>
+    <t>09</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>7635636</t>
+  </si>
+  <si>
+    <t>M004</t>
+  </si>
+  <si>
+    <t>26/02/2016</t>
+  </si>
+  <si>
+    <t>00000015</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>5625623</t>
+  </si>
+  <si>
+    <t>M003</t>
+  </si>
+  <si>
+    <t>20/01/2016</t>
+  </si>
+  <si>
+    <t>9010469157</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>235</t>
+  </si>
+  <si>
+    <t>2016</t>
+  </si>
+  <si>
+    <t>014259</t>
+  </si>
+  <si>
+    <t>9767</t>
+  </si>
+  <si>
+    <t>Carestream Healt S.A.</t>
+  </si>
+  <si>
+    <t>Route De Cite Ouest 2 1196 Gland</t>
+  </si>
+  <si>
+    <t>02</t>
   </si>
 </sst>
 </file>
@@ -173,8 +281,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -456,10 +570,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AJ1"/>
+  <dimension ref="A1:AK4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="X8" sqref="X8"/>
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -467,7 +581,7 @@
     <col min="1" max="1" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.5703125" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22.28515625" bestFit="1" customWidth="1"/>
@@ -478,9 +592,9 @@
     <col min="12" max="12" width="32.85546875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="17.140625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="26.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="5.28515625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="13" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="10.7109375" bestFit="1" customWidth="1"/>
@@ -502,7 +616,7 @@
     <col min="36" max="36" width="7.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -512,7 +626,7 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E1" t="s">
@@ -551,7 +665,7 @@
       <c r="P1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="2" t="s">
         <v>16</v>
       </c>
       <c r="R1" t="s">
@@ -611,8 +725,313 @@
       <c r="AJ1" t="s">
         <v>34</v>
       </c>
+    </row>
+    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H2" s="2">
+        <f>3.43*2314</f>
+        <v>7937.02</v>
+      </c>
+      <c r="I2" s="3"/>
+      <c r="J2" s="4">
+        <f>H2</f>
+        <v>7937.02</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="M2" s="3"/>
+      <c r="N2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O2" s="4">
+        <f>J2*0.18</f>
+        <v>1428.6636000000001</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q2" s="4">
+        <v>3.43</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="V2" s="3"/>
+      <c r="W2" s="3"/>
+      <c r="X2" s="3"/>
+      <c r="Y2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z2" s="4">
+        <f>J2</f>
+        <v>7937.02</v>
+      </c>
+      <c r="AA2" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="4">
+        <f>Z2</f>
+        <v>7937.02</v>
+      </c>
+      <c r="AC2" s="2">
+        <v>30</v>
+      </c>
+      <c r="AD2" s="2">
+        <f>Z2*AC2/100</f>
+        <v>2381.1060000000002</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF2" s="3"/>
+      <c r="AG2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AH2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI2" s="3"/>
+      <c r="AJ2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AK2" s="3"/>
+    </row>
+    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H3" s="2">
+        <f>3.485*2314</f>
+        <v>8064.29</v>
+      </c>
+      <c r="I3" s="3"/>
+      <c r="J3" s="2">
+        <f>H3</f>
+        <v>8064.29</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="M3" s="3"/>
+      <c r="N3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="O3" s="2">
+        <v>0</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q3" s="6">
+        <v>3.4849999999999999</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="V3" s="3"/>
+      <c r="W3" s="3"/>
+      <c r="X3" s="3"/>
+      <c r="Y3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z3" s="2">
+        <f>J3</f>
+        <v>8064.29</v>
+      </c>
+      <c r="AA3" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="2">
+        <f>Z3</f>
+        <v>8064.29</v>
+      </c>
+      <c r="AC3" s="2">
+        <v>30</v>
+      </c>
+      <c r="AD3" s="2">
+        <f>Z3*AC3/100</f>
+        <v>2419.2870000000003</v>
+      </c>
+      <c r="AE3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF3" s="3"/>
+      <c r="AG3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AH3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI3" s="3"/>
+      <c r="AJ3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AK3" s="3"/>
+    </row>
+    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H4" s="2">
+        <f>3.433*3172.12</f>
+        <v>10889.887959999998</v>
+      </c>
+      <c r="I4" s="3"/>
+      <c r="J4" s="2">
+        <f>H4</f>
+        <v>10889.887959999998</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="O4" s="2">
+        <v>1980.8</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q4" s="6">
+        <v>3.4329999999999998</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="V4" s="3"/>
+      <c r="W4" s="3"/>
+      <c r="X4" s="3"/>
+      <c r="Y4" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z4" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD4" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF4" s="3"/>
+      <c r="AG4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AH4" s="3"/>
+      <c r="AI4" s="3"/>
+      <c r="AJ4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AK4" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>